--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AttendanceManagement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B238AC2F-D179-4395-9BCD-AE7B2EA63AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -22,20 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="152">
   <si>
     <t>勤怠管理システム　設計書</t>
     <rPh sb="0" eb="2">
@@ -704,9 +702,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>作業場所メンテナンス画面</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
@@ -715,16 +710,6 @@
       <t>バショ</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者メニュー画面</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -804,15 +789,6 @@
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
   </si>
   <si>
     <t>来歴</t>
@@ -1113,19 +1089,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>経費精算申請</t>
     <rPh sb="0" eb="2">
       <t>ケイヒ</t>
@@ -1399,11 +1362,39 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -2307,67 +2298,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2393,6 +2333,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2444,7 +2435,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{227950AC-C7F1-4432-93C6-751D86B09EB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2512,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9B274A4-F7CA-45B4-BF7C-86579DF8F03B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2567,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D54120D-BF24-47C5-ACAB-A2A934E0D17F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2658,7 @@
         <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA420D05-4D6A-492E-AD0A-E842EAF8A7BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2718,7 @@
         <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46509F4D-1B76-4818-A9DB-C6B21D2B4600}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2778,7 @@
         <xdr:cNvPr id="81" name="グループ化 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35763FD9-F372-4DA3-9E6A-5F305F7207EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2797,7 @@
           <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EDCB4C1-3D07-48A0-ACA5-3D358380E7DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2849,7 +2840,7 @@
           <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF5B639B-B331-4789-9CC0-BC665543C144}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2905,7 +2896,7 @@
         <xdr:cNvPr id="87" name="テキスト ボックス 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14F3B2EB-A4DE-4C2F-A008-BA4CB9398BBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2982,7 @@
         <xdr:cNvPr id="88" name="テキスト ボックス 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21A9AEAB-9E19-4AAD-A7C6-B76F98443172}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,7 +3059,7 @@
         <xdr:cNvPr id="89" name="直線矢印コネクタ 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62D85146-1217-4587-82CC-34FB8078D9D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3114,7 @@
         <xdr:cNvPr id="90" name="テキスト ボックス 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F81E3F99-CAAC-4596-AC6D-3438B09AA80C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3200,7 +3191,7 @@
         <xdr:cNvPr id="91" name="直線矢印コネクタ 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B205CD5-56FC-41D9-98F7-599E4FD5898A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3251,7 @@
         <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0C3303C-B7C6-4617-BC85-1EAED0E0E5A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3311,7 @@
         <xdr:cNvPr id="94" name="直線矢印コネクタ 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{712589FB-2B84-4410-B105-DCB4095A7B98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3369,7 @@
         <xdr:cNvPr id="95" name="グループ化 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A7F1D1-0801-42F2-9578-2E430C6CD9E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3388,7 @@
           <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{249DDA68-271F-408F-AAD1-763674B3EE29}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3440,7 +3431,7 @@
           <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{206A4801-15ED-4A99-863C-D1A7244D3202}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3496,7 +3487,7 @@
         <xdr:cNvPr id="98" name="テキスト ボックス 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88E04842-DF27-4948-8FAF-43F25D7A9250}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3611,7 +3602,7 @@
         <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37188EAF-314A-43F9-9C8E-4077ED1C1719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3666,7 +3657,7 @@
         <xdr:cNvPr id="100" name="テキスト ボックス 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{850F573B-2A18-4194-BFA8-94810C691A35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +3734,7 @@
         <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{994C940C-F966-4FA7-85B3-0E5D67823493}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3803,7 +3794,7 @@
         <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6698F90A-B8A7-44A7-A8D3-F056C4AC0E7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3863,7 +3854,7 @@
         <xdr:cNvPr id="103" name="直線矢印コネクタ 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E0FC685-7853-484A-B93E-85A53C822B60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3922,7 +3913,7 @@
         <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E40FC7C3-44E4-4610-BB5A-CB7AAED7EEB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3981,7 +3972,7 @@
         <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5AA2CB3-24E1-4C0D-9995-FFD9FC647888}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4039,7 +4030,7 @@
         <xdr:cNvPr id="106" name="グループ化 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{583AEDB8-C258-42B1-A3A4-CCFBF884E8A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4058,7 +4049,7 @@
           <xdr:cNvPr id="107" name="直線矢印コネクタ 106">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{362C92FE-46DF-4966-BA42-D9C38C5EF7F6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4101,7 +4092,7 @@
           <xdr:cNvPr id="108" name="直線矢印コネクタ 107">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B243836-C93D-4518-808E-44D136020BFC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4160,7 +4151,7 @@
         <xdr:cNvPr id="109" name="グループ化 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4901A42-E65B-42ED-8CA2-422E6F49F142}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4179,7 +4170,7 @@
           <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{301CC933-F321-495E-A4A4-64596BD912B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4222,7 +4213,7 @@
           <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0105FB66-5775-4166-96E0-969D4E74276F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4276,7 +4267,7 @@
         <xdr:cNvPr id="52" name="テキスト ボックス 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14F3B2EB-A4DE-4C2F-A008-BA4CB9398BBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4367,7 +4358,7 @@
         <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62D85146-1217-4587-82CC-34FB8078D9D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4422,7 +4413,7 @@
         <xdr:cNvPr id="55" name="テキスト ボックス 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F81E3F99-CAAC-4596-AC6D-3438B09AA80C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4499,7 +4490,7 @@
         <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0C3303C-B7C6-4617-BC85-1EAED0E0E5A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4559,7 +4550,7 @@
         <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{712589FB-2B84-4410-B105-DCB4095A7B98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4617,7 +4608,7 @@
         <xdr:cNvPr id="59" name="グループ化 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A7F1D1-0801-42F2-9578-2E430C6CD9E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4636,7 +4627,7 @@
           <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{249DDA68-271F-408F-AAD1-763674B3EE29}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4679,7 +4670,7 @@
           <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{206A4801-15ED-4A99-863C-D1A7244D3202}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4735,7 +4726,7 @@
         <xdr:cNvPr id="62" name="テキスト ボックス 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88E04842-DF27-4948-8FAF-43F25D7A9250}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4826,7 +4817,7 @@
         <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37188EAF-314A-43F9-9C8E-4077ED1C1719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4881,7 +4872,7 @@
         <xdr:cNvPr id="64" name="テキスト ボックス 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{850F573B-2A18-4194-BFA8-94810C691A35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4958,7 +4949,7 @@
         <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{994C940C-F966-4FA7-85B3-0E5D67823493}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5018,7 +5009,7 @@
         <xdr:cNvPr id="79" name="グループ化 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18A7F1D1-0801-42F2-9578-2E430C6CD9E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5037,7 +5028,7 @@
           <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{249DDA68-271F-408F-AAD1-763674B3EE29}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5080,7 +5071,7 @@
           <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{206A4801-15ED-4A99-863C-D1A7244D3202}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5136,7 +5127,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5196,7 +5193,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5263,7 +5266,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{345C4364-AFBB-459B-886C-80A6F0514247}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5340,7 +5343,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D837E85-B31A-4942-8CD7-27F52769B8D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5395,7 +5398,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADC8DEA-2FC9-4D32-92D8-503AAE9CC8E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5486,7 +5489,7 @@
         <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{101E7200-D4C2-4AEF-8777-FDF7E5645F03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5546,7 +5549,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56712625-BBD7-49AC-ABAE-37C070F08AC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5606,7 +5609,7 @@
         <xdr:cNvPr id="7" name="グループ化 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F2900CB-ED42-4CE2-A6CB-B6EC215B91CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5625,7 +5628,7 @@
           <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47A8DF34-6FB4-41FA-9E52-C990B0CAA2A1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5668,7 +5671,7 @@
           <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1E5E014-1571-4E57-AF8D-872454ACEFAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5724,7 +5727,7 @@
         <xdr:cNvPr id="34" name="テキスト ボックス 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{777407D0-C859-43FF-83A4-09028A0CF2D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5921,7 +5924,7 @@
         <xdr:cNvPr id="35" name="テキスト ボックス 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C1DB653-7E72-4E8A-A023-817F3FD1BC3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5993,7 +5996,7 @@
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB0E66ED-FFF4-49DB-A22F-EB958960AF42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6070,7 +6073,7 @@
         <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10369ED3-EA0A-41CB-82DB-B057F811F159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6130,7 +6133,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF4D8E81-6E4D-4CB9-988C-F3976199984A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6188,7 +6191,7 @@
         <xdr:cNvPr id="39" name="グループ化 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F173F67F-26EC-447E-BE12-EB164AD2E39F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6207,7 +6210,7 @@
           <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B642FA7E-534A-456D-AAA1-43E843D7A502}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6250,7 +6253,7 @@
           <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB773434-FA2D-450F-A6D3-2C4860591C33}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6309,7 +6312,7 @@
         <xdr:cNvPr id="42" name="グループ化 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0A7B675-BA2F-4310-B37F-677C1DD2A74C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6328,7 +6331,7 @@
           <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{281E3625-4838-427D-BB52-E9F59690A134}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6371,7 +6374,7 @@
           <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC103CAD-A943-4497-BBA1-2553979E976C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6430,7 +6433,7 @@
         <xdr:cNvPr id="45" name="グループ化 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2B2C045-1838-4C11-8982-57C734A73DD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6449,7 +6452,7 @@
           <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{996DF409-96B6-45FD-B739-A587D68EDA7C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6492,7 +6495,7 @@
           <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D089B15E-BCFA-4263-8881-B90A91A340D7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6551,7 +6554,7 @@
         <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAB39F5C-0981-467A-8223-D84B758DBDF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6611,7 +6614,7 @@
         <xdr:cNvPr id="49" name="コネクタ: カギ線 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5F9393C-7D62-4BAE-8AC4-273D70157351}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6672,7 +6675,7 @@
         <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6FC026C-36DF-4EEC-8891-A384E37BDC76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6732,7 +6735,7 @@
         <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E7C5AED-F9F0-4ACE-9720-8C61B5C8030D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6787,7 +6790,7 @@
         <xdr:cNvPr id="54" name="テキスト ボックス 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3799F451-ED76-49CF-961A-1427171D938F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6885,7 +6888,7 @@
         <xdr:cNvPr id="59" name="テキスト ボックス 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDC82FFE-E6FE-45AD-BCBF-2D4D5013F7AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7064,7 +7067,7 @@
         <xdr:cNvPr id="74" name="コネクタ: カギ線 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B28D3D0-AC73-411D-9D4E-4C397CB2F161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7120,7 +7123,7 @@
         <xdr:cNvPr id="76" name="テキスト ボックス 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{850DD878-29EC-488A-9AB2-0FB3568E246C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7206,7 +7209,7 @@
         <xdr:cNvPr id="77" name="テキスト ボックス 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49539186-BE66-437E-A088-7B9335D0957A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7292,7 +7295,7 @@
         <xdr:cNvPr id="79" name="テキスト ボックス 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0F61C7A-32DC-4659-B241-0DD116C3F7A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7383,7 +7386,7 @@
         <xdr:cNvPr id="80" name="コネクタ: カギ線 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86141FB6-1452-486D-BB0B-70E390D3FB32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7444,7 +7447,7 @@
         <xdr:cNvPr id="84" name="コネクタ: カギ線 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27514C3A-7945-466A-9556-6DD5B3DC2D81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7505,7 +7508,7 @@
         <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{252AE3D3-AE63-4569-B9E6-5CD57584793D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7566,7 +7569,7 @@
         <xdr:cNvPr id="91" name="コネクタ: カギ線 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F3D9894-ED8E-4E39-AA33-5AB24B2D6DB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7627,7 +7630,7 @@
         <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{727B2E0A-1BB1-4557-BDEF-494380A16CB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7687,7 +7690,7 @@
         <xdr:cNvPr id="98" name="直線矢印コネクタ 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34CA8094-E849-4A33-95E2-0B944BD25611}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7747,7 +7750,7 @@
         <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B8E7296-6B8E-46D9-8D7E-C3C0F7AA9685}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7807,7 +7810,7 @@
         <xdr:cNvPr id="108" name="直線矢印コネクタ 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{864D7DBC-7758-4E3F-BBD7-943B4D03C96C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7867,7 +7870,7 @@
         <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72265C24-5F79-4B7C-864B-6ECD6999D798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7925,7 +7928,7 @@
         <xdr:cNvPr id="113" name="直線矢印コネクタ 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B1218DD-3AA9-4AED-9E76-21A8C263A2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7978,7 +7981,7 @@
         <xdr:cNvPr id="115" name="テキスト ボックス 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B8322E6-CDCF-4A2C-A5CC-AC3055FEF8EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8064,7 +8067,7 @@
         <xdr:cNvPr id="116" name="テキスト ボックス 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF130CC5-1623-4F9D-9BF5-A3AB0D861888}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8141,7 +8144,7 @@
         <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E6DEE0F-A935-4371-A419-423CBED14D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8196,7 +8199,7 @@
         <xdr:cNvPr id="118" name="テキスト ボックス 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00B332A6-0ABB-4568-BC6A-315E9143040E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8273,7 +8276,7 @@
         <xdr:cNvPr id="119" name="直線矢印コネクタ 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62CF83B0-925B-461D-9DCC-B521B19B8D71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8333,7 +8336,7 @@
         <xdr:cNvPr id="120" name="直線矢印コネクタ 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEA5B0AC-F980-4BAD-A7A1-59057CA53752}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8393,7 +8396,7 @@
         <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3611E8E-BA95-4BE0-A330-0F3CAB2587AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8451,7 +8454,7 @@
         <xdr:cNvPr id="122" name="グループ化 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{392B188A-B482-4305-9BEB-CF3B32E1C6A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8470,7 +8473,7 @@
           <xdr:cNvPr id="123" name="直線矢印コネクタ 122">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBF36FB0-BED7-4157-BBEE-4688A47FE8ED}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8513,7 +8516,7 @@
           <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3F17F0E-C1C9-4B95-8F08-7567A282DC40}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8569,7 +8572,7 @@
         <xdr:cNvPr id="125" name="テキスト ボックス 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AC0341D-EBEF-48FE-BD8C-FED0878A25BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8684,7 +8687,7 @@
         <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B678AC12-D583-424A-9B55-0FDE02D8B5E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8739,7 +8742,7 @@
         <xdr:cNvPr id="127" name="テキスト ボックス 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{989D3034-954A-4EE2-83F8-BE1026B1EA54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8816,7 +8819,7 @@
         <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F10A2B93-BA71-4131-80C9-E1F28FB1B668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8876,7 +8879,7 @@
         <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BED099C-3B98-4099-BC86-7EE50EE85DD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8936,7 +8939,7 @@
         <xdr:cNvPr id="130" name="直線矢印コネクタ 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F80A82CE-6D6D-4CB0-B172-B4A2854BD952}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8995,7 +8998,7 @@
         <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6DC34DA-900A-424C-BFA1-F08C1EEF1025}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9054,7 +9057,7 @@
         <xdr:cNvPr id="132" name="直線矢印コネクタ 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E6ED428-3211-4C94-A968-7921B6CB24CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9112,7 +9115,7 @@
         <xdr:cNvPr id="133" name="グループ化 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F140EBB-707C-4718-BAFE-9F3BDABCA0FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9131,7 +9134,7 @@
           <xdr:cNvPr id="134" name="直線矢印コネクタ 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDE1C831-4353-4A35-A3B2-7E2237469D64}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000086000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9174,7 +9177,7 @@
           <xdr:cNvPr id="135" name="直線矢印コネクタ 134">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0362A51B-8391-4DDE-88FF-B9507B19FD8D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000087000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9233,7 +9236,7 @@
         <xdr:cNvPr id="136" name="グループ化 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E2E14CA-5E40-4220-A76E-49CC57775713}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9252,7 +9255,7 @@
           <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFB3968F-AA09-4B21-B320-A3DA3ACFDABC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000089000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9295,7 +9298,7 @@
           <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29E8C851-B3E0-42E4-9349-4CA695CE3B0C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9359,7 +9362,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54C1D811-8EF2-4D1F-873F-3FE5B3400376}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9427,7 +9430,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D329C17-FA45-48EC-84BE-B1A1A64A751D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9471,7 +9474,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E30E49A-EB44-445C-93D1-128552DCED54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9515,7 +9518,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EF2A21F-EE66-47AB-AC51-45351B820510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9559,7 +9562,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82DB93FF-127C-4E1D-8E22-B8CE70F251FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9603,7 +9606,7 @@
         <xdr:cNvPr id="11" name="矢印: 右 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{694D76C1-4378-4810-BE63-AA7DAFC0A363}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9663,7 +9666,7 @@
         <xdr:cNvPr id="12" name="矢印: 右 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC9A5307-DDC0-4946-AB6C-524D53410281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9723,7 +9726,7 @@
         <xdr:cNvPr id="13" name="矢印: 右 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B23CD845-1371-42F9-A8CE-824E240C7D61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9783,7 +9786,7 @@
         <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1E8C482-AADB-4E0C-ADC9-1B6D1F6759E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9854,7 +9857,7 @@
         <xdr:cNvPr id="28" name="正方形/長方形 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BC20ECC-9EFB-4166-8504-77A50D65C86E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9920,7 +9923,7 @@
         <xdr:cNvPr id="45" name="テキスト ボックス 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2AF19D-6CD5-482C-A6F5-3DC7708B8929}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10006,7 +10009,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8199E42D-537C-4631-ADFE-6C4D31E25C77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10072,7 +10075,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A33B804A-80AA-4360-8203-CF588AB7637B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10154,7 +10157,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C83CB397-DB92-4F6A-96FB-4394F2EC9BB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10230,7 +10233,7 @@
         <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEF9E2C3-5742-4F2B-BE43-907DDDD38E28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10301,7 +10304,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C55E157-9F05-4EC3-BFA8-67C6AC5CF9A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10372,7 +10375,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F434EA4-6497-440E-88B2-BBA00874A26B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10441,7 +10444,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40BE41A9-B4DE-4E7C-9698-3D944E44AB5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10505,7 +10508,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADC8772F-E3CF-4D65-B367-848989F27483}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10571,7 +10574,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F1C4B5C-B422-479D-9BFD-D9456550F46D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10637,7 +10640,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73AB1669-B352-4D50-909D-C27EE90D1690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10719,7 +10722,7 @@
         <xdr:cNvPr id="16" name="テキスト ボックス 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A84E6CEC-FC1A-4DA2-82AC-7AED618E6586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10785,7 +10788,7 @@
         <xdr:cNvPr id="20" name="テキスト ボックス 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B9BEF54-98E9-40D5-8161-23C4518511E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10852,7 +10855,7 @@
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DF31898-3CE0-435E-8BDC-CCC199340F2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10929,7 +10932,7 @@
         <xdr:cNvPr id="30" name="グループ化 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1250B76-94FB-4934-8ADD-7D8774CBC48E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10948,7 +10951,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C698AA9-7BCE-4B83-8636-A7C82F252DE5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11002,7 +11005,7 @@
           <xdr:cNvPr id="17" name="四角形: 角を丸くする 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E72B7C5-17F0-4372-B0EF-6FF325C32AC3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11058,7 +11061,7 @@
           <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE69490-C2D0-44C3-AF2F-88AB0F92BAC0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11114,7 +11117,7 @@
           <xdr:cNvPr id="19" name="四角形: 角を丸くする 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{950FF5D3-BC0E-4CC8-8746-E6F1DBD12D16}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11170,7 +11173,7 @@
           <xdr:cNvPr id="22" name="四角形: 角を丸くする 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25D2C350-6420-49B9-B304-82DC2FE57871}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11242,7 +11245,7 @@
         <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6AEA3A6-A30A-4418-A9CD-AA6B10C32E9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11308,7 +11311,7 @@
         <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F98E05D2-CFB0-459C-AA0C-89F3FD26F158}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11376,7 +11379,7 @@
         <xdr:cNvPr id="25" name="テキスト ボックス 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32234C5C-ED1D-4E8F-9AE2-191C71A9525E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11452,7 +11455,7 @@
         <xdr:cNvPr id="26" name="四角形: 角を丸くする 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E0F8403-7922-44F7-95C5-657242D007BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11518,7 +11521,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78723C0F-E31F-4329-990B-087FAC99FF90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11594,7 +11597,7 @@
         <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{720BD8F5-93B4-4ED9-A4E7-05FD73E78067}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11660,7 +11663,7 @@
         <xdr:cNvPr id="37" name="テキスト ボックス 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26313420-1B79-4E76-B405-F44DEA60FBA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11734,7 +11737,7 @@
         <xdr:cNvPr id="38" name="正方形/長方形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F93F21E-C599-44CC-963F-BDB327870A26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11798,7 +11801,7 @@
         <xdr:cNvPr id="39" name="テキスト ボックス 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C155887-22B6-44F4-8272-EA62FEA69990}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11867,7 +11870,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C1DCF58-01D2-4E1F-8C46-E5DF83C7CD5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11941,7 +11944,7 @@
         <xdr:cNvPr id="42" name="四角形: 角を丸くする 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0461D07-327C-43D4-830B-57DC28C3D285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12012,7 +12015,7 @@
         <xdr:cNvPr id="44" name="直線コネクタ 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D142A712-474A-45F2-8F99-716C98E205EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12063,7 +12066,7 @@
         <xdr:cNvPr id="47" name="テキスト ボックス 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48BDC4A1-0B3C-48FF-987C-4EF8406BC9FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12136,7 +12139,7 @@
         <xdr:cNvPr id="48" name="テキスト ボックス 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4BE48CB-72D1-4DA5-8C12-A6CA7BECB0A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12209,7 +12212,7 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AB84C00-B59A-4B2D-AEC8-58932D455394}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12287,7 +12290,7 @@
         <xdr:cNvPr id="50" name="二等辺三角形 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB73CF67-DAFA-48AA-86FB-C8F9DD22D66E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12350,7 +12353,7 @@
         <xdr:cNvPr id="51" name="二等辺三角形 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B2C7EC9-520D-4198-B986-4254EA0F08C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12413,7 +12416,7 @@
         <xdr:cNvPr id="52" name="楕円 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A74F180-AE5C-4405-AEF4-C06FC6940E0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12471,7 +12474,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D932D374-D3C4-47A5-BDD1-3D977A76EBAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12545,7 +12548,7 @@
         <xdr:cNvPr id="54" name="楕円 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5B042FF-B4F5-4419-BEE8-AB68C62FA5C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12603,7 +12606,7 @@
         <xdr:cNvPr id="55" name="テキスト ボックス 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C0ADFD1-115C-49F6-9C54-ABE6BB020A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12677,7 +12680,7 @@
         <xdr:cNvPr id="56" name="正方形/長方形 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{359F1F41-3033-4814-88D6-99B6B1A1405F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12743,7 +12746,7 @@
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA1E0BA-799B-4EC9-B7FE-D82BD61C9AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12819,7 +12822,7 @@
         <xdr:cNvPr id="59" name="四角形: 角を丸くする 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC5FE1AF-FF57-4CB1-8D54-7EB582FFE7C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12890,7 +12893,7 @@
         <xdr:cNvPr id="61" name="四角形: 角を丸くする 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BB1D373-0B6F-4C93-A493-C0FA531A6613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12961,7 +12964,7 @@
         <xdr:cNvPr id="62" name="正方形/長方形 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AC3EE01-7DAB-498E-93CF-BFBF2DE92EA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13027,7 +13030,7 @@
         <xdr:cNvPr id="63" name="テキスト ボックス 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E41132E-F778-4541-B968-1A170EA5B6E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13100,7 +13103,7 @@
         <xdr:cNvPr id="64" name="四角形: 角を丸くする 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23FCE6BC-97C9-40DE-B07D-1B8331AFBBCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13171,7 +13174,7 @@
         <xdr:cNvPr id="65" name="四角形: 角を丸くする 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{182DAD66-10C0-4546-8580-49525B8F0187}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13237,7 +13240,7 @@
         <xdr:cNvPr id="66" name="テキスト ボックス 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8822A0C-1346-474C-BA6A-4D2C05AF3C83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13322,7 +13325,7 @@
         <xdr:cNvPr id="60" name="四角形: 角を丸くする 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE69490-C2D0-44C3-AF2F-88AB0F92BAC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13393,7 +13396,7 @@
         <xdr:cNvPr id="67" name="グループ化 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1250B76-94FB-4934-8ADD-7D8774CBC48E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13412,7 +13415,7 @@
           <xdr:cNvPr id="68" name="正方形/長方形 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C698AA9-7BCE-4B83-8636-A7C82F252DE5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13466,7 +13469,7 @@
           <xdr:cNvPr id="69" name="四角形: 角を丸くする 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E72B7C5-17F0-4372-B0EF-6FF325C32AC3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13522,7 +13525,7 @@
           <xdr:cNvPr id="70" name="四角形: 角を丸くする 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE69490-C2D0-44C3-AF2F-88AB0F92BAC0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13578,7 +13581,7 @@
           <xdr:cNvPr id="71" name="四角形: 角を丸くする 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{950FF5D3-BC0E-4CC8-8746-E6F1DBD12D16}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13634,7 +13637,7 @@
           <xdr:cNvPr id="72" name="四角形: 角を丸くする 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25D2C350-6420-49B9-B304-82DC2FE57871}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13706,7 +13709,7 @@
         <xdr:cNvPr id="73" name="四角形: 角を丸くする 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE69490-C2D0-44C3-AF2F-88AB0F92BAC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13772,7 +13775,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA1E0BA-799B-4EC9-B7FE-D82BD61C9AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13848,7 +13851,7 @@
         <xdr:cNvPr id="75" name="四角形: 角を丸くする 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0461D07-327C-43D4-830B-57DC28C3D285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13919,7 +13922,7 @@
         <xdr:cNvPr id="76" name="正方形/長方形 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C55E157-9F05-4EC3-BFA8-67C6AC5CF9A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13990,7 +13993,7 @@
         <xdr:cNvPr id="85" name="グループ化 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1250B76-94FB-4934-8ADD-7D8774CBC48E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14009,7 +14012,7 @@
           <xdr:cNvPr id="86" name="正方形/長方形 85">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C698AA9-7BCE-4B83-8636-A7C82F252DE5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14063,7 +14066,7 @@
           <xdr:cNvPr id="87" name="四角形: 角を丸くする 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E72B7C5-17F0-4372-B0EF-6FF325C32AC3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14119,7 +14122,7 @@
           <xdr:cNvPr id="88" name="四角形: 角を丸くする 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE69490-C2D0-44C3-AF2F-88AB0F92BAC0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14175,7 +14178,7 @@
           <xdr:cNvPr id="89" name="四角形: 角を丸くする 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{950FF5D3-BC0E-4CC8-8746-E6F1DBD12D16}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14231,7 +14234,7 @@
           <xdr:cNvPr id="90" name="四角形: 角を丸くする 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25D2C350-6420-49B9-B304-82DC2FE57871}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14303,7 +14306,7 @@
         <xdr:cNvPr id="91" name="四角形: 角を丸くする 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE69490-C2D0-44C3-AF2F-88AB0F92BAC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14369,7 +14372,7 @@
         <xdr:cNvPr id="92" name="テキスト ボックス 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADC8772F-E3CF-4D65-B367-848989F27483}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14441,7 +14444,7 @@
         <xdr:cNvPr id="77" name="四角形: 角を丸くする 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE69490-C2D0-44C3-AF2F-88AB0F92BAC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14512,7 +14515,7 @@
         <xdr:cNvPr id="78" name="正方形/長方形 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BC20ECC-9EFB-4166-8504-77A50D65C86E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14578,7 +14581,7 @@
         <xdr:cNvPr id="79" name="テキスト ボックス 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA2AF19D-6CD5-482C-A6F5-3DC7708B8929}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14659,7 +14662,7 @@
         <xdr:cNvPr id="80" name="テキスト ボックス 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26313420-1B79-4E76-B405-F44DEA60FBA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14733,7 +14736,7 @@
         <xdr:cNvPr id="81" name="正方形/長方形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F93F21E-C599-44CC-963F-BDB327870A26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14797,7 +14800,7 @@
         <xdr:cNvPr id="82" name="テキスト ボックス 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C155887-22B6-44F4-8272-EA62FEA69990}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14866,7 +14869,7 @@
         <xdr:cNvPr id="83" name="テキスト ボックス 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C1DCF58-01D2-4E1F-8C46-E5DF83C7CD5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14940,7 +14943,7 @@
         <xdr:cNvPr id="84" name="四角形: 角を丸くする 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0461D07-327C-43D4-830B-57DC28C3D285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15011,7 +15014,7 @@
         <xdr:cNvPr id="93" name="直線コネクタ 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D142A712-474A-45F2-8F99-716C98E205EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15062,7 +15065,7 @@
         <xdr:cNvPr id="94" name="テキスト ボックス 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48BDC4A1-0B3C-48FF-987C-4EF8406BC9FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15135,7 +15138,7 @@
         <xdr:cNvPr id="95" name="テキスト ボックス 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4BE48CB-72D1-4DA5-8C12-A6CA7BECB0A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15208,7 +15211,7 @@
         <xdr:cNvPr id="96" name="テキスト ボックス 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AB84C00-B59A-4B2D-AEC8-58932D455394}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15286,7 +15289,7 @@
         <xdr:cNvPr id="97" name="二等辺三角形 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB73CF67-DAFA-48AA-86FB-C8F9DD22D66E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15349,7 +15352,7 @@
         <xdr:cNvPr id="98" name="二等辺三角形 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B2C7EC9-520D-4198-B986-4254EA0F08C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15412,7 +15415,7 @@
         <xdr:cNvPr id="99" name="楕円 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A74F180-AE5C-4405-AEF4-C06FC6940E0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15470,7 +15473,7 @@
         <xdr:cNvPr id="100" name="テキスト ボックス 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D932D374-D3C4-47A5-BDD1-3D977A76EBAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15544,7 +15547,7 @@
         <xdr:cNvPr id="101" name="楕円 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5B042FF-B4F5-4419-BEE8-AB68C62FA5C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15602,7 +15605,7 @@
         <xdr:cNvPr id="102" name="テキスト ボックス 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C0ADFD1-115C-49F6-9C54-ABE6BB020A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15676,7 +15679,7 @@
         <xdr:cNvPr id="103" name="正方形/長方形 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{359F1F41-3033-4814-88D6-99B6B1A1405F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15742,7 +15745,7 @@
         <xdr:cNvPr id="104" name="テキスト ボックス 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA1E0BA-799B-4EC9-B7FE-D82BD61C9AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15818,7 +15821,7 @@
         <xdr:cNvPr id="105" name="四角形: 角を丸くする 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC5FE1AF-FF57-4CB1-8D54-7EB582FFE7C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15889,7 +15892,7 @@
         <xdr:cNvPr id="106" name="四角形: 角を丸くする 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BB1D373-0B6F-4C93-A493-C0FA531A6613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15960,7 +15963,7 @@
         <xdr:cNvPr id="107" name="正方形/長方形 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AC3EE01-7DAB-498E-93CF-BFBF2DE92EA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16026,7 +16029,7 @@
         <xdr:cNvPr id="108" name="テキスト ボックス 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E41132E-F778-4541-B968-1A170EA5B6E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16100,7 +16103,7 @@
         <xdr:cNvPr id="109" name="四角形: 角を丸くする 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23FCE6BC-97C9-40DE-B07D-1B8331AFBBCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16171,7 +16174,7 @@
         <xdr:cNvPr id="110" name="四角形: 角を丸くする 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{182DAD66-10C0-4546-8580-49525B8F0187}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16242,7 +16245,7 @@
         <xdr:cNvPr id="112" name="グループ化 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1250B76-94FB-4934-8ADD-7D8774CBC48E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16261,7 +16264,7 @@
           <xdr:cNvPr id="113" name="正方形/長方形 112">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C698AA9-7BCE-4B83-8636-A7C82F252DE5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000071000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16315,7 +16318,7 @@
           <xdr:cNvPr id="114" name="四角形: 角を丸くする 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E72B7C5-17F0-4372-B0EF-6FF325C32AC3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000072000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16371,7 +16374,7 @@
           <xdr:cNvPr id="115" name="四角形: 角を丸くする 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE69490-C2D0-44C3-AF2F-88AB0F92BAC0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000073000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16427,7 +16430,7 @@
           <xdr:cNvPr id="116" name="四角形: 角を丸くする 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{950FF5D3-BC0E-4CC8-8746-E6F1DBD12D16}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16483,7 +16486,7 @@
           <xdr:cNvPr id="117" name="四角形: 角を丸くする 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25D2C350-6420-49B9-B304-82DC2FE57871}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000075000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16555,7 +16558,7 @@
         <xdr:cNvPr id="118" name="四角形: 角を丸くする 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FE69490-C2D0-44C3-AF2F-88AB0F92BAC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16621,7 +16624,7 @@
         <xdr:cNvPr id="119" name="テキスト ボックス 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA1E0BA-799B-4EC9-B7FE-D82BD61C9AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16697,7 +16700,7 @@
         <xdr:cNvPr id="120" name="四角形: 角を丸くする 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0461D07-327C-43D4-830B-57DC28C3D285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16763,7 +16766,7 @@
         <xdr:cNvPr id="122" name="テキスト ボックス 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C1DCF58-01D2-4E1F-8C46-E5DF83C7CD5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16832,7 +16835,7 @@
         <xdr:cNvPr id="123" name="テキスト ボックス 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDA1E0BA-799B-4EC9-B7FE-D82BD61C9AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16908,7 +16911,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20A8CB94-DFD8-43D6-8723-7D4C5D1BCCBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16995,7 +16998,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11079392-632F-4773-AFBF-6BD23A200BB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17078,7 +17081,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C41CA1C2-C524-4EC8-B4B4-1F14F07404AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17161,7 +17164,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F7D9A6F-56F4-4552-AFA1-346697A54550}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17244,7 +17247,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CFAD835-2CEC-4E02-9626-836B5A1980F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17327,7 +17330,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B072E420-E5FE-4AB1-B593-86AC3F8B5496}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17408,7 +17411,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6943D53F-64C4-4845-93D9-21F79D8FE166}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17468,7 +17471,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63027040-27CC-4D99-AAEE-F4C6E665C240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17528,7 +17531,7 @@
         <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72B42DFA-7204-415A-B757-6403D3B6439C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17588,7 +17591,7 @@
         <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2ED0D82-A473-43C6-94B3-560B31473386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17643,7 +17646,7 @@
         <xdr:cNvPr id="28" name="テキスト ボックス 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D40867D7-ACE2-44F6-96AA-91CD871D0837}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17724,7 +17727,7 @@
         <xdr:cNvPr id="30" name="コネクタ: カギ線 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEAFEC0B-B936-4A3B-ADD8-D7FD85BDBE93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17779,7 +17782,7 @@
         <xdr:cNvPr id="34" name="テキスト ボックス 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC91DD06-13D5-41BA-A736-CBD47807285F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17862,7 +17865,7 @@
         <xdr:cNvPr id="35" name="テキスト ボックス 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91037FF6-DD4E-4CA9-B4FA-84A5F1CB7259}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17945,7 +17948,7 @@
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C649314D-D5D3-4E23-AB8F-6CCF8CA0F588}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18033,7 +18036,7 @@
         <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DEA6F2D-5C55-491F-B7CB-8B5022A439E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18093,7 +18096,7 @@
         <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4B403DF-0166-4AC9-AE56-B45C365E076E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18148,7 +18151,7 @@
         <xdr:cNvPr id="46" name="テキスト ボックス 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D422B67-82F6-4895-B2DE-D8F52632E6BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18245,7 +18248,7 @@
         <xdr:cNvPr id="47" name="テキスト ボックス 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD833539-81FB-4B58-AB2C-D95A89065E00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18328,7 +18331,7 @@
         <xdr:cNvPr id="48" name="テキスト ボックス 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B15145C0-8C57-4675-B827-3B5FEEF5C41D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18416,7 +18419,7 @@
         <xdr:cNvPr id="51" name="コネクタ: カギ線 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7018D2A-5565-4B52-8274-804E80EB07F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18478,7 +18481,7 @@
         <xdr:cNvPr id="54" name="コネクタ: カギ線 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0E92AE-673D-49B9-A358-85CB53C6FEE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18540,7 +18543,7 @@
         <xdr:cNvPr id="57" name="コネクタ: カギ線 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03F75C06-590B-4610-90CE-5FD58AB351B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18602,7 +18605,7 @@
         <xdr:cNvPr id="66" name="コネクタ: カギ線 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8393AD9F-1219-4C20-B204-A65FC2AE1982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18664,7 +18667,7 @@
         <xdr:cNvPr id="69" name="コネクタ: カギ線 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C03EA84-D7B9-48A4-9CCA-5BBE578CF88A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18726,7 +18729,7 @@
         <xdr:cNvPr id="71" name="コネクタ: カギ線 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CE901A0-1097-43F0-87AD-A37A124525F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18783,7 +18786,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB631DEC-AA1A-4D1B-B187-7BDC9E03C415}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18871,7 +18874,7 @@
         <xdr:cNvPr id="74" name="コネクタ: カギ線 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39083823-E81E-4B15-AE7B-FC5DC8BDE369}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18928,7 +18931,7 @@
         <xdr:cNvPr id="31" name="テキスト ボックス 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20A8CB94-DFD8-43D6-8723-7D4C5D1BCCBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19016,7 +19019,7 @@
         <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6943D53F-64C4-4845-93D9-21F79D8FE166}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19071,7 +19074,7 @@
         <xdr:cNvPr id="32" name="テキスト ボックス 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F7D9A6F-56F4-4552-AFA1-346697A54550}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19154,7 +19157,7 @@
         <xdr:cNvPr id="38" name="テキスト ボックス 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CFAD835-2CEC-4E02-9626-836B5A1980F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19237,7 +19240,7 @@
         <xdr:cNvPr id="39" name="テキスト ボックス 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B072E420-E5FE-4AB1-B593-86AC3F8B5496}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19325,7 +19328,7 @@
         <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2ED0D82-A473-43C6-94B3-560B31473386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19385,7 +19388,7 @@
         <xdr:cNvPr id="43" name="コネクタ: カギ線 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8393AD9F-1219-4C20-B204-A65FC2AE1982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19447,7 +19450,7 @@
         <xdr:cNvPr id="44" name="コネクタ: カギ線 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C03EA84-D7B9-48A4-9CCA-5BBE578CF88A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19509,7 +19512,7 @@
         <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72B42DFA-7204-415A-B757-6403D3B6439C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19843,14 +19846,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19888,7 +19891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19904,30 +19907,30 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="50" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="56">
         <v>43976</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -19938,7 +19941,7 @@
         <v>43994</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -20044,7 +20047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20181,123 +20184,123 @@
       <c r="AA4" s="7"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="107" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="109"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="106"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="99"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="103"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="68"/>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97" t="s">
+      <c r="J6" s="112"/>
+      <c r="K6" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="97"/>
+      <c r="L6" s="112"/>
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="95"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="71"/>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95" t="s">
+      <c r="J7" s="107"/>
+      <c r="K7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="95"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="76"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="19"/>
       <c r="G8" s="18"/>
       <c r="H8" s="71"/>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95" t="s">
+      <c r="J8" s="107"/>
+      <c r="K8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="95"/>
+      <c r="L8" s="107"/>
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="95"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="15"/>
       <c r="G9" s="18"/>
       <c r="H9" s="71"/>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95" t="s">
+      <c r="J9" s="107"/>
+      <c r="K9" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="95"/>
+      <c r="L9" s="107"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="109"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -20311,10 +20314,10 @@
       <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="9"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -20328,8 +20331,8 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -20343,8 +20346,8 @@
       <c r="M12" s="31"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -20358,8 +20361,8 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -20373,8 +20376,8 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -20388,8 +20391,8 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -20521,235 +20524,235 @@
       <c r="AA20" s="7"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="110" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="100" t="s">
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="104" t="s">
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="105"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="106"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="117"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="103"/>
+      <c r="E22" s="105"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="97" t="s">
+      <c r="G22" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="97"/>
+      <c r="H22" s="112"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="97" t="s">
+      <c r="K22" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97" t="s">
+      <c r="L22" s="112"/>
+      <c r="M22" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="97"/>
+      <c r="N22" s="112"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="97" t="s">
+      <c r="P22" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="97"/>
+      <c r="Q22" s="112"/>
       <c r="R22" s="10"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="103" t="s">
+      <c r="T22" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103" t="s">
+      <c r="U22" s="105"/>
+      <c r="V22" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103" t="s">
+      <c r="W22" s="105"/>
+      <c r="X22" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="Y22" s="99"/>
+      <c r="Y22" s="96"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="94"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="95"/>
+      <c r="E23" s="107"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="112" t="s">
+      <c r="G23" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="112"/>
+      <c r="H23" s="111"/>
       <c r="I23" s="16"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="95" t="s">
+      <c r="K23" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95" t="s">
+      <c r="L23" s="107"/>
+      <c r="M23" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="95"/>
+      <c r="N23" s="107"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="95" t="s">
+      <c r="P23" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Q23" s="95"/>
+      <c r="Q23" s="107"/>
       <c r="R23" s="18"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="95" t="s">
+      <c r="T23" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95" t="s">
+      <c r="U23" s="107"/>
+      <c r="V23" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95" t="s">
+      <c r="W23" s="107"/>
+      <c r="X23" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="Y23" s="94"/>
+      <c r="Y23" s="109"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="94"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="96"/>
+      <c r="E24" s="110"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="95" t="s">
+      <c r="G24" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="95"/>
+      <c r="H24" s="107"/>
       <c r="I24" s="18"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="95" t="s">
+      <c r="K24" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95" t="s">
+      <c r="L24" s="107"/>
+      <c r="M24" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="95"/>
+      <c r="N24" s="107"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="95" t="s">
+      <c r="P24" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="95"/>
+      <c r="Q24" s="107"/>
       <c r="R24" s="18"/>
       <c r="S24" s="15"/>
-      <c r="T24" s="95" t="s">
+      <c r="T24" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95" t="s">
+      <c r="U24" s="107"/>
+      <c r="V24" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95" t="s">
+      <c r="W24" s="107"/>
+      <c r="X24" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Y24" s="94"/>
+      <c r="Y24" s="109"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="94"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="95"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="95" t="s">
+      <c r="G25" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="95"/>
+      <c r="H25" s="107"/>
       <c r="I25" s="18"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="95" t="s">
+      <c r="K25" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95" t="s">
+      <c r="L25" s="107"/>
+      <c r="M25" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="95"/>
+      <c r="N25" s="107"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="95" t="s">
+      <c r="P25" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="95"/>
+      <c r="Q25" s="107"/>
       <c r="R25" s="18"/>
       <c r="S25" s="15"/>
-      <c r="T25" s="95" t="s">
+      <c r="T25" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95" t="s">
+      <c r="U25" s="107"/>
+      <c r="V25" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95" t="s">
+      <c r="W25" s="107"/>
+      <c r="X25" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Y25" s="94"/>
+      <c r="Y25" s="109"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="109"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -20777,10 +20780,10 @@
       <c r="AA26" s="7"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="9"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -20808,8 +20811,8 @@
       <c r="AA27" s="7"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
@@ -20837,8 +20840,8 @@
       <c r="AA28" s="7"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -20866,8 +20869,8 @@
       <c r="AA29" s="7"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
@@ -20895,8 +20898,8 @@
       <c r="AA30" s="7"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -20924,8 +20927,8 @@
       <c r="AA31" s="7"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -20953,8 +20956,8 @@
       <c r="AA32" s="7"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -20982,8 +20985,8 @@
       <c r="AA33" s="7"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
@@ -21011,8 +21014,8 @@
       <c r="AA34" s="7"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -21040,8 +21043,8 @@
       <c r="AA35" s="7"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="28"/>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -21069,8 +21072,8 @@
       <c r="AA36" s="7"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
@@ -21098,8 +21101,8 @@
       <c r="AA37" s="7"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A38" s="114"/>
-      <c r="B38" s="115"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
@@ -21127,8 +21130,8 @@
       <c r="AA38" s="7"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A39" s="114"/>
-      <c r="B39" s="115"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
@@ -21156,8 +21159,8 @@
       <c r="AA39" s="7"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A40" s="114"/>
-      <c r="B40" s="115"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="28"/>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
@@ -21185,8 +21188,8 @@
       <c r="AA40" s="7"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A41" s="114"/>
-      <c r="B41" s="115"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -21214,8 +21217,8 @@
       <c r="AA41" s="7"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="28"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -21243,8 +21246,8 @@
       <c r="AA42" s="7"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A43" s="116"/>
-      <c r="B43" s="117"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="32"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
@@ -21302,7 +21305,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A45" s="38" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -21332,182 +21335,182 @@
       <c r="AA45" s="7"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="110" t="s">
+      <c r="B46" s="96"/>
+      <c r="C46" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="104" t="s">
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
-      <c r="O46" s="105"/>
-      <c r="P46" s="105"/>
-      <c r="Q46" s="105"/>
-      <c r="R46" s="105"/>
-      <c r="S46" s="105"/>
-      <c r="T46" s="106"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="114"/>
+      <c r="S46" s="114"/>
+      <c r="T46" s="117"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="99"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="103"/>
-      <c r="F47" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="118"/>
+      <c r="D47" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="105"/>
+      <c r="F47" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="101"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="97" t="s">
+      <c r="I47" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="97"/>
+      <c r="J47" s="112"/>
       <c r="K47" s="10"/>
       <c r="L47" s="68"/>
-      <c r="M47" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="P47" s="97"/>
+      <c r="M47" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="P47" s="112"/>
       <c r="Q47" s="12"/>
-      <c r="R47" s="97"/>
-      <c r="S47" s="97"/>
+      <c r="R47" s="112"/>
+      <c r="S47" s="112"/>
       <c r="T47" s="69"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A48" s="93" t="s">
+      <c r="A48" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="94"/>
+      <c r="B48" s="109"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="95" t="s">
+      <c r="D48" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="95"/>
-      <c r="F48" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="119"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="102"/>
       <c r="H48" s="15"/>
-      <c r="I48" s="112" t="s">
+      <c r="I48" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="112"/>
+      <c r="J48" s="111"/>
       <c r="K48" s="16"/>
       <c r="L48" s="70"/>
-      <c r="M48" s="95" t="s">
+      <c r="M48" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95" t="s">
+      <c r="N48" s="107"/>
+      <c r="O48" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="95"/>
+      <c r="P48" s="107"/>
       <c r="Q48" s="15"/>
-      <c r="R48" s="95"/>
-      <c r="S48" s="95"/>
+      <c r="R48" s="107"/>
+      <c r="S48" s="107"/>
       <c r="T48" s="13"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="94"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="96" t="s">
+      <c r="D49" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="96"/>
-      <c r="F49" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="G49" s="120"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="103"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="95" t="s">
+      <c r="I49" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="95"/>
+      <c r="J49" s="107"/>
       <c r="K49" s="18"/>
       <c r="L49" s="71"/>
-      <c r="M49" s="95" t="s">
+      <c r="M49" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="N49" s="95"/>
-      <c r="O49" s="95" t="s">
+      <c r="N49" s="107"/>
+      <c r="O49" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="P49" s="95"/>
+      <c r="P49" s="107"/>
       <c r="Q49" s="15"/>
-      <c r="R49" s="95"/>
-      <c r="S49" s="95"/>
+      <c r="R49" s="107"/>
+      <c r="S49" s="107"/>
       <c r="T49" s="13"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="94"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="95" t="s">
+      <c r="D50" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="95"/>
-      <c r="F50" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="121"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="104"/>
       <c r="H50" s="15"/>
-      <c r="I50" s="95" t="s">
+      <c r="I50" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="95"/>
+      <c r="J50" s="107"/>
       <c r="K50" s="18"/>
       <c r="L50" s="71"/>
-      <c r="M50" s="95" t="s">
+      <c r="M50" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="N50" s="95"/>
-      <c r="O50" s="95" t="s">
+      <c r="N50" s="107"/>
+      <c r="O50" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="P50" s="95"/>
+      <c r="P50" s="107"/>
       <c r="Q50" s="15"/>
-      <c r="R50" s="95"/>
-      <c r="S50" s="95"/>
+      <c r="R50" s="107"/>
+      <c r="S50" s="107"/>
       <c r="T50" s="13"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A51" s="113" t="s">
+      <c r="A51" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="109"/>
+      <c r="B51" s="106"/>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -21530,10 +21533,10 @@
       <c r="V51" s="7"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A52" s="98" t="s">
+      <c r="A52" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="99"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="9"/>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -21556,8 +21559,8 @@
       <c r="V52" s="7"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A53" s="114"/>
-      <c r="B53" s="115"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="98"/>
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -21580,8 +21583,8 @@
       <c r="V53" s="7"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A54" s="114"/>
-      <c r="B54" s="115"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
@@ -21604,8 +21607,8 @@
       <c r="V54" s="7"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A55" s="114"/>
-      <c r="B55" s="115"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -21628,8 +21631,8 @@
       <c r="V55" s="7"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A56" s="114"/>
-      <c r="B56" s="115"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="98"/>
       <c r="C56" s="28"/>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
@@ -21652,8 +21655,8 @@
       <c r="V56" s="7"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A57" s="114"/>
-      <c r="B57" s="115"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="98"/>
       <c r="C57" s="28"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -21676,8 +21679,8 @@
       <c r="V57" s="7"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="28"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
@@ -21700,8 +21703,8 @@
       <c r="V58" s="7"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A59" s="114"/>
-      <c r="B59" s="115"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="98"/>
       <c r="C59" s="28"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -21724,8 +21727,8 @@
       <c r="V59" s="7"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A60" s="114"/>
-      <c r="B60" s="115"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="98"/>
       <c r="C60" s="28"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -21748,8 +21751,8 @@
       <c r="V60" s="7"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A61" s="114"/>
-      <c r="B61" s="115"/>
+      <c r="A61" s="97"/>
+      <c r="B61" s="98"/>
       <c r="C61" s="28"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29"/>
@@ -21772,8 +21775,8 @@
       <c r="V61" s="7"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A62" s="114"/>
-      <c r="B62" s="115"/>
+      <c r="A62" s="97"/>
+      <c r="B62" s="98"/>
       <c r="C62" s="28"/>
       <c r="D62" s="29"/>
       <c r="E62" s="29"/>
@@ -21796,8 +21799,8 @@
       <c r="V62" s="7"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A63" s="114"/>
-      <c r="B63" s="115"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="28"/>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -21820,8 +21823,8 @@
       <c r="V63" s="7"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A64" s="114"/>
-      <c r="B64" s="115"/>
+      <c r="A64" s="97"/>
+      <c r="B64" s="98"/>
       <c r="C64" s="28"/>
       <c r="D64" s="29"/>
       <c r="E64" s="29"/>
@@ -21844,8 +21847,8 @@
       <c r="V64" s="7"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A65" s="114"/>
-      <c r="B65" s="115"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="28"/>
       <c r="D65" s="29"/>
       <c r="E65" s="29"/>
@@ -21868,8 +21871,8 @@
       <c r="V65" s="7"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A66" s="114"/>
-      <c r="B66" s="115"/>
+      <c r="A66" s="97"/>
+      <c r="B66" s="98"/>
       <c r="C66" s="28"/>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -21892,8 +21895,8 @@
       <c r="V66" s="7"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A67" s="114"/>
-      <c r="B67" s="115"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="98"/>
       <c r="C67" s="28"/>
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
@@ -21916,8 +21919,8 @@
       <c r="V67" s="7"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A68" s="116"/>
-      <c r="B68" s="117"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="32"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
@@ -21941,6 +21944,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:T46"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="A52:B68"/>
     <mergeCell ref="F47:G47"/>
@@ -21957,86 +22040,6 @@
     <mergeCell ref="A11:B16"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:T46"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J21:R21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22046,7 +22049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -22276,51 +22279,51 @@
       <c r="AX4" s="7"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
       <c r="S5" s="122"/>
-      <c r="T5" s="107" t="s">
+      <c r="T5" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="122"/>
       <c r="Z5" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="99"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="96"/>
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
@@ -22336,69 +22339,69 @@
       <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="99"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="103"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="103"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="103" t="s">
+      <c r="K6" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="103"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="103" t="s">
+      <c r="N6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="103"/>
+      <c r="O6" s="105"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="103" t="s">
+      <c r="Q6" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="103"/>
+      <c r="R6" s="105"/>
       <c r="S6" s="10"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="97" t="s">
+      <c r="U6" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97" t="s">
+      <c r="V6" s="112"/>
+      <c r="W6" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="97"/>
+      <c r="X6" s="112"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="97" t="s">
+      <c r="AA6" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97" t="s">
+      <c r="AB6" s="112"/>
+      <c r="AC6" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AD6" s="97"/>
+      <c r="AD6" s="112"/>
       <c r="AE6" s="11"/>
-      <c r="AF6" s="103" t="s">
+      <c r="AF6" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103" t="s">
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="103" t="s">
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="AK6" s="99"/>
+      <c r="AK6" s="96"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
@@ -22414,69 +22417,69 @@
       <c r="AX6" s="7"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="95"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="95"/>
+      <c r="I7" s="107"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="95"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="95" t="s">
+      <c r="N7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="95"/>
+      <c r="O7" s="107"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="95"/>
+      <c r="R7" s="107"/>
       <c r="S7" s="16"/>
       <c r="T7" s="17"/>
-      <c r="U7" s="95" t="s">
+      <c r="U7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95" t="s">
+      <c r="V7" s="107"/>
+      <c r="W7" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="95"/>
+      <c r="X7" s="107"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="95" t="s">
+      <c r="AA7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95" t="s">
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="95"/>
+      <c r="AD7" s="107"/>
       <c r="AE7" s="17"/>
-      <c r="AF7" s="95" t="s">
+      <c r="AF7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="95" t="s">
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AI7" s="95"/>
-      <c r="AJ7" s="95" t="s">
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AK7" s="94"/>
+      <c r="AK7" s="109"/>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
@@ -22492,69 +22495,69 @@
       <c r="AX7" s="7"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="96"/>
+      <c r="I8" s="110"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="96" t="s">
+      <c r="K8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="96"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="96" t="s">
+      <c r="N8" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="96"/>
+      <c r="O8" s="110"/>
       <c r="P8" s="19"/>
-      <c r="Q8" s="96" t="s">
+      <c r="Q8" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="96"/>
+      <c r="R8" s="110"/>
       <c r="S8" s="18"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="95" t="s">
+      <c r="U8" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95" t="s">
+      <c r="V8" s="107"/>
+      <c r="W8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="95"/>
+      <c r="X8" s="107"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="95" t="s">
+      <c r="AA8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95" t="s">
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AD8" s="95"/>
+      <c r="AD8" s="107"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="95" t="s">
+      <c r="AF8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="95" t="s">
+      <c r="AG8" s="107"/>
+      <c r="AH8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AI8" s="95"/>
-      <c r="AJ8" s="95" t="s">
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AK8" s="94"/>
+      <c r="AK8" s="109"/>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -22570,69 +22573,69 @@
       <c r="AX8" s="7"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="95"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="107"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="95"/>
+      <c r="L9" s="107"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="95" t="s">
+      <c r="N9" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="95"/>
+      <c r="O9" s="107"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="95" t="s">
+      <c r="Q9" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="95"/>
+      <c r="R9" s="107"/>
       <c r="S9" s="18"/>
       <c r="T9" s="15"/>
-      <c r="U9" s="95" t="s">
+      <c r="U9" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95" t="s">
+      <c r="V9" s="107"/>
+      <c r="W9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="95"/>
+      <c r="X9" s="107"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="95" t="s">
+      <c r="AA9" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95" t="s">
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="AD9" s="95"/>
+      <c r="AD9" s="107"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="95" t="s">
+      <c r="AF9" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95" t="s">
+      <c r="AG9" s="107"/>
+      <c r="AH9" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="AI9" s="95"/>
-      <c r="AJ9" s="95" t="s">
+      <c r="AI9" s="107"/>
+      <c r="AJ9" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AK9" s="94"/>
+      <c r="AK9" s="109"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
@@ -22648,10 +22651,10 @@
       <c r="AX9" s="7"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="109"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -22702,10 +22705,10 @@
       <c r="AX10" s="7"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -22756,8 +22759,8 @@
       <c r="AX11" s="7"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -22810,8 +22813,8 @@
       <c r="AX12" s="7"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -22862,8 +22865,8 @@
       <c r="AX13" s="7"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -22916,8 +22919,8 @@
       <c r="AX14" s="7"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -22968,8 +22971,8 @@
       <c r="AX15" s="7"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -23020,8 +23023,8 @@
       <c r="AX16" s="7"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -23072,8 +23075,8 @@
       <c r="AX17" s="7"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -23124,8 +23127,8 @@
       <c r="AX18" s="7"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A19" s="114"/>
-      <c r="B19" s="115"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -23176,8 +23179,8 @@
       <c r="AX19" s="7"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A20" s="114"/>
-      <c r="B20" s="115"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -23228,8 +23231,8 @@
       <c r="AX20" s="7"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -23280,10 +23283,10 @@
       <c r="AX21" s="7"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="99"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -23334,8 +23337,8 @@
       <c r="AX22" s="7"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -23390,8 +23393,8 @@
       <c r="AX23" s="7"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -23442,8 +23445,8 @@
       <c r="AX24" s="7"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -23498,8 +23501,8 @@
       <c r="AX25" s="7"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -23550,8 +23553,8 @@
       <c r="AX26" s="7"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -23602,8 +23605,8 @@
       <c r="AX27" s="7"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -23654,8 +23657,8 @@
       <c r="AX28" s="7"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
@@ -23706,8 +23709,8 @@
       <c r="AX29" s="7"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -23758,8 +23761,8 @@
       <c r="AX30" s="7"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
@@ -23810,8 +23813,8 @@
       <c r="AX31" s="7"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
@@ -24072,39 +24075,39 @@
       <c r="AX36" s="7"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="110" t="s">
+      <c r="B37" s="96"/>
+      <c r="C37" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="100" t="s">
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="102"/>
-      <c r="S37" s="104" t="s">
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="T37" s="105"/>
-      <c r="U37" s="105"/>
-      <c r="V37" s="105"/>
-      <c r="W37" s="105"/>
-      <c r="X37" s="105"/>
-      <c r="Y37" s="106"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="114"/>
+      <c r="X37" s="114"/>
+      <c r="Y37" s="117"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
@@ -24132,49 +24135,49 @@
       <c r="AX37" s="7"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="99"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="103"/>
+      <c r="E38" s="105"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="97" t="s">
+      <c r="G38" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="97"/>
+      <c r="H38" s="112"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="97" t="s">
+      <c r="K38" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97" t="s">
+      <c r="L38" s="112"/>
+      <c r="M38" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="97"/>
+      <c r="N38" s="112"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="97" t="s">
+      <c r="P38" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="97"/>
+      <c r="Q38" s="112"/>
       <c r="R38" s="10"/>
       <c r="S38" s="11"/>
-      <c r="T38" s="103" t="s">
+      <c r="T38" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="U38" s="103"/>
-      <c r="V38" s="103" t="s">
+      <c r="U38" s="105"/>
+      <c r="V38" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="W38" s="103"/>
-      <c r="X38" s="103" t="s">
+      <c r="W38" s="105"/>
+      <c r="X38" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="Y38" s="99"/>
+      <c r="Y38" s="96"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
@@ -24202,49 +24205,49 @@
       <c r="AX38" s="7"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="94"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="95" t="s">
+      <c r="D39" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="95"/>
+      <c r="E39" s="107"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="112" t="s">
+      <c r="G39" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="112"/>
+      <c r="H39" s="111"/>
       <c r="I39" s="16"/>
       <c r="J39" s="17"/>
-      <c r="K39" s="95" t="s">
+      <c r="K39" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95" t="s">
+      <c r="L39" s="107"/>
+      <c r="M39" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="N39" s="95"/>
+      <c r="N39" s="107"/>
       <c r="O39" s="15"/>
-      <c r="P39" s="95" t="s">
+      <c r="P39" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Q39" s="95"/>
+      <c r="Q39" s="107"/>
       <c r="R39" s="18"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="95" t="s">
+      <c r="T39" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95" t="s">
+      <c r="U39" s="107"/>
+      <c r="V39" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="W39" s="95"/>
-      <c r="X39" s="95" t="s">
+      <c r="W39" s="107"/>
+      <c r="X39" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="Y39" s="94"/>
+      <c r="Y39" s="109"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
@@ -24272,49 +24275,49 @@
       <c r="AX39" s="7"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="94"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="96"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="95" t="s">
+      <c r="G40" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="95"/>
+      <c r="H40" s="107"/>
       <c r="I40" s="18"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="95" t="s">
+      <c r="K40" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95" t="s">
+      <c r="L40" s="107"/>
+      <c r="M40" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="95"/>
+      <c r="N40" s="107"/>
       <c r="O40" s="15"/>
-      <c r="P40" s="95" t="s">
+      <c r="P40" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="Q40" s="95"/>
+      <c r="Q40" s="107"/>
       <c r="R40" s="18"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="95" t="s">
+      <c r="T40" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95" t="s">
+      <c r="U40" s="107"/>
+      <c r="V40" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95" t="s">
+      <c r="W40" s="107"/>
+      <c r="X40" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Y40" s="94"/>
+      <c r="Y40" s="109"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
@@ -24342,49 +24345,49 @@
       <c r="AX40" s="7"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="94"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="95" t="s">
+      <c r="D41" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="95"/>
+      <c r="E41" s="107"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="95" t="s">
+      <c r="G41" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="95"/>
+      <c r="H41" s="107"/>
       <c r="I41" s="18"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="95" t="s">
+      <c r="K41" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95" t="s">
+      <c r="L41" s="107"/>
+      <c r="M41" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="95"/>
+      <c r="N41" s="107"/>
       <c r="O41" s="15"/>
-      <c r="P41" s="95" t="s">
+      <c r="P41" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Q41" s="95"/>
+      <c r="Q41" s="107"/>
       <c r="R41" s="18"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="95" t="s">
+      <c r="T41" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="U41" s="95"/>
-      <c r="V41" s="95" t="s">
+      <c r="U41" s="107"/>
+      <c r="V41" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95" t="s">
+      <c r="W41" s="107"/>
+      <c r="X41" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Y41" s="94"/>
+      <c r="Y41" s="109"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -24412,10 +24415,10 @@
       <c r="AX41" s="7"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A42" s="113" t="s">
+      <c r="A42" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="109"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -24466,10 +24469,10 @@
       <c r="AX42" s="7"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="99"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="9"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -24520,8 +24523,8 @@
       <c r="AX43" s="7"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -24572,8 +24575,8 @@
       <c r="AX44" s="7"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A45" s="114"/>
-      <c r="B45" s="115"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
@@ -24624,8 +24627,8 @@
       <c r="AX45" s="7"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A46" s="114"/>
-      <c r="B46" s="115"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
@@ -24676,8 +24679,8 @@
       <c r="AX46" s="7"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A47" s="114"/>
-      <c r="B47" s="115"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -24728,8 +24731,8 @@
       <c r="AX47" s="7"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A48" s="114"/>
-      <c r="B48" s="115"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -24780,8 +24783,8 @@
       <c r="AX48" s="7"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A49" s="114"/>
-      <c r="B49" s="115"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
@@ -24832,8 +24835,8 @@
       <c r="AX49" s="7"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A50" s="114"/>
-      <c r="B50" s="115"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="28"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -24884,8 +24887,8 @@
       <c r="AX50" s="7"/>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A51" s="114"/>
-      <c r="B51" s="115"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="98"/>
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
@@ -24936,8 +24939,8 @@
       <c r="AX51" s="7"/>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A52" s="114"/>
-      <c r="B52" s="115"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="28"/>
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
@@ -24988,8 +24991,8 @@
       <c r="AX52" s="7"/>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A53" s="114"/>
-      <c r="B53" s="115"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="98"/>
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -25040,8 +25043,8 @@
       <c r="AX53" s="7"/>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A54" s="114"/>
-      <c r="B54" s="115"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
@@ -25092,8 +25095,8 @@
       <c r="AX54" s="7"/>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A55" s="114"/>
-      <c r="B55" s="115"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -25144,8 +25147,8 @@
       <c r="AX55" s="7"/>
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A56" s="114"/>
-      <c r="B56" s="115"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="98"/>
       <c r="C56" s="28"/>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
@@ -25196,8 +25199,8 @@
       <c r="AX56" s="7"/>
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A57" s="114"/>
-      <c r="B57" s="115"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="98"/>
       <c r="C57" s="28"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -25248,8 +25251,8 @@
       <c r="AX57" s="7"/>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="28"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
@@ -25300,8 +25303,8 @@
       <c r="AX58" s="7"/>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A59" s="116"/>
-      <c r="B59" s="117"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="100"/>
       <c r="C59" s="32"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
@@ -26653,67 +26656,22 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="A43:B59"/>
-    <mergeCell ref="A22:B32"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B21"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="S37:Y37"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AK5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="N8:O8"/>
@@ -26738,22 +26696,67 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AK5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B21"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="S37:Y37"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="A43:B59"/>
+    <mergeCell ref="A22:B32"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26763,7 +26766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -27056,7 +27059,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -27188,11 +27191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27233,7 +27236,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>77</v>
@@ -27246,13 +27249,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="42"/>
@@ -27260,20 +27263,20 @@
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="125" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="38" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G6" s="42"/>
     </row>
@@ -27283,14 +27286,14 @@
         <v>62</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="38" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -27303,7 +27306,7 @@
         <v>63</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="7"/>
@@ -27318,7 +27321,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="7"/>
@@ -27333,7 +27336,7 @@
         <v>67</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="7"/>
@@ -27348,7 +27351,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="7"/>
@@ -27363,7 +27366,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="7"/>
@@ -27372,64 +27375,64 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="126"/>
       <c r="B13" s="86" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="79"/>
       <c r="F13" s="38" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="126"/>
       <c r="B14" s="86" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E14" s="79"/>
       <c r="F14" s="38" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="126"/>
       <c r="B15" s="86" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E15" s="79"/>
       <c r="F15" s="38" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="126"/>
       <c r="B16" s="60" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>78</v>
@@ -27440,10 +27443,10 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="126"/>
       <c r="B17" s="60" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>86</v>
@@ -27457,13 +27460,13 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="126"/>
       <c r="B18" s="60" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>78</v>
@@ -27474,13 +27477,13 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="126"/>
       <c r="B19" s="60" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>78</v>
@@ -27491,13 +27494,13 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="126"/>
       <c r="B20" s="60" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" s="44" t="s">
         <v>78</v>
@@ -27508,13 +27511,13 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="126"/>
       <c r="B21" s="60" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>82</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>78</v>
@@ -27522,59 +27525,55 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="126"/>
-      <c r="B22" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="44" t="s">
+    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="127"/>
+      <c r="B22" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="45" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="127"/>
-      <c r="B23" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>78</v>
-      </c>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="67"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="65" t="s">
+      <c r="A24" s="126"/>
+      <c r="B24" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="126"/>
       <c r="B25" s="60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>75</v>
@@ -27584,29 +27583,25 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="126"/>
-      <c r="B26" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="64" t="s">
+    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="127"/>
+      <c r="B26" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="44"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="127"/>
-      <c r="B27" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="45"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
@@ -27628,19 +27623,10 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A6:A23"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A6:A22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27649,7 +27635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T167"/>
   <sheetViews>
     <sheetView topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -27729,7 +27715,7 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -28127,7 +28113,7 @@
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="38" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -28547,7 +28533,7 @@
     <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -28945,7 +28931,7 @@
     <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -29299,7 +29285,7 @@
     <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -29697,7 +29683,7 @@
     <row r="93" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -30029,7 +30015,7 @@
     <row r="108" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -30339,7 +30325,7 @@
     <row r="122" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -30737,7 +30723,7 @@
     <row r="140" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -31069,7 +31055,7 @@
     <row r="155" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A155" s="7"/>
       <c r="B155" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -31362,7 +31348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -31373,7 +31359,7 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -31451,7 +31437,7 @@
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E27" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -31462,7 +31448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31477,16 +31463,16 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="42" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -31494,7 +31480,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -31502,7 +31488,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -31510,7 +31496,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -31518,7 +31504,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -31526,7 +31512,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -31534,7 +31520,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -31542,7 +31528,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -31550,7 +31536,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AttendanceManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B238AC2F-D179-4395-9BCD-AE7B2EA63AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566442C4-B4B6-4954-B70C-74AC7A8FF257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="148">
   <si>
     <t>勤怠管理システム　設計書</t>
     <rPh sb="0" eb="2">
@@ -702,29 +702,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業場所メンテナンス画面</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休日メンテナンス画面</t>
-    <rPh sb="0" eb="2">
-      <t>キュウジツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面サイズ</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -976,19 +953,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>申請一覧画面</t>
-    <rPh sb="0" eb="2">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1363,31 +1327,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10</t>
+    <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11</t>
+    <t>02</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>12</t>
+    <t>03</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>13</t>
+    <t>06</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>14</t>
+    <t>休暇申請一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>16</t>
+    <t>経費申請一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1479,7 +1463,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2012,13 +1996,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2295,19 +2303,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2334,57 +2396,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2401,6 +2412,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -19863,22 +19892,22 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19907,30 +19936,30 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="56">
         <v>43976</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -19941,7 +19970,7 @@
         <v>43994</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -20184,123 +20213,123 @@
       <c r="AA4" s="7"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="118" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="106"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="68"/>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112" t="s">
+      <c r="J6" s="98"/>
+      <c r="K6" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="112"/>
+      <c r="L6" s="98"/>
       <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="109"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="107"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="71"/>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107" t="s">
+      <c r="J7" s="96"/>
+      <c r="K7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="107"/>
+      <c r="L7" s="96"/>
       <c r="M7" s="76"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="109"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="19"/>
       <c r="G8" s="18"/>
       <c r="H8" s="71"/>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107" t="s">
+      <c r="J8" s="96"/>
+      <c r="K8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="107"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="109"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="15"/>
       <c r="G9" s="18"/>
       <c r="H9" s="71"/>
-      <c r="I9" s="107" t="s">
+      <c r="I9" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107" t="s">
+      <c r="J9" s="96"/>
+      <c r="K9" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="107"/>
+      <c r="L9" s="96"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="106"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -20314,10 +20343,10 @@
       <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="9"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -20331,8 +20360,8 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -20346,8 +20375,8 @@
       <c r="M12" s="31"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -20361,8 +20390,8 @@
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -20376,8 +20405,8 @@
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -20391,8 +20420,8 @@
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -20524,235 +20553,235 @@
       <c r="AA20" s="7"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="113" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="119" t="s">
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="116" t="s">
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="117"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="107"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="96"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="105"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="112" t="s">
+      <c r="G22" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="112"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="112" t="s">
+      <c r="K22" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112" t="s">
+      <c r="L22" s="98"/>
+      <c r="M22" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="112"/>
+      <c r="N22" s="98"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="112" t="s">
+      <c r="P22" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="112"/>
+      <c r="Q22" s="98"/>
       <c r="R22" s="10"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="105" t="s">
+      <c r="T22" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="105"/>
-      <c r="V22" s="105" t="s">
+      <c r="U22" s="104"/>
+      <c r="V22" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="105"/>
-      <c r="X22" s="105" t="s">
+      <c r="W22" s="104"/>
+      <c r="X22" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="Y22" s="96"/>
+      <c r="Y22" s="100"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="109"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="107"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="111" t="s">
+      <c r="G23" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="111"/>
+      <c r="H23" s="113"/>
       <c r="I23" s="16"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="107" t="s">
+      <c r="K23" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107" t="s">
+      <c r="L23" s="96"/>
+      <c r="M23" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="107"/>
+      <c r="N23" s="96"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="107" t="s">
+      <c r="P23" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q23" s="107"/>
+      <c r="Q23" s="96"/>
       <c r="R23" s="18"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="107" t="s">
+      <c r="T23" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107" t="s">
+      <c r="U23" s="96"/>
+      <c r="V23" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107" t="s">
+      <c r="W23" s="96"/>
+      <c r="X23" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="Y23" s="109"/>
+      <c r="Y23" s="95"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="109"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="110"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="107"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="18"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="107" t="s">
+      <c r="K24" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107" t="s">
+      <c r="L24" s="96"/>
+      <c r="M24" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="107"/>
+      <c r="N24" s="96"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="107" t="s">
+      <c r="P24" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="107"/>
+      <c r="Q24" s="96"/>
       <c r="R24" s="18"/>
       <c r="S24" s="15"/>
-      <c r="T24" s="107" t="s">
+      <c r="T24" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107" t="s">
+      <c r="U24" s="96"/>
+      <c r="V24" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107" t="s">
+      <c r="W24" s="96"/>
+      <c r="X24" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Y24" s="109"/>
+      <c r="Y24" s="95"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="109"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="107"/>
+      <c r="E25" s="96"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="107" t="s">
+      <c r="G25" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="107"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="18"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="107" t="s">
+      <c r="K25" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107" t="s">
+      <c r="L25" s="96"/>
+      <c r="M25" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="107"/>
+      <c r="N25" s="96"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="107" t="s">
+      <c r="P25" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="107"/>
+      <c r="Q25" s="96"/>
       <c r="R25" s="18"/>
       <c r="S25" s="15"/>
-      <c r="T25" s="107" t="s">
+      <c r="T25" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107" t="s">
+      <c r="U25" s="96"/>
+      <c r="V25" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107" t="s">
+      <c r="W25" s="96"/>
+      <c r="X25" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Y25" s="109"/>
+      <c r="Y25" s="95"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="106"/>
+      <c r="B26" s="110"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -20780,10 +20809,10 @@
       <c r="AA26" s="7"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="96"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="9"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -20811,8 +20840,8 @@
       <c r="AA27" s="7"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A28" s="97"/>
-      <c r="B28" s="98"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
@@ -20840,8 +20869,8 @@
       <c r="AA28" s="7"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -20869,8 +20898,8 @@
       <c r="AA29" s="7"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
@@ -20898,8 +20927,8 @@
       <c r="AA30" s="7"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A31" s="97"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
@@ -20927,8 +20956,8 @@
       <c r="AA31" s="7"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -20956,8 +20985,8 @@
       <c r="AA32" s="7"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A33" s="97"/>
-      <c r="B33" s="98"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -20985,8 +21014,8 @@
       <c r="AA33" s="7"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
@@ -21014,8 +21043,8 @@
       <c r="AA34" s="7"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -21043,8 +21072,8 @@
       <c r="AA35" s="7"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="28"/>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
@@ -21072,8 +21101,8 @@
       <c r="AA36" s="7"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
@@ -21101,8 +21130,8 @@
       <c r="AA37" s="7"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A38" s="97"/>
-      <c r="B38" s="98"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
@@ -21130,8 +21159,8 @@
       <c r="AA38" s="7"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A39" s="97"/>
-      <c r="B39" s="98"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
@@ -21159,8 +21188,8 @@
       <c r="AA39" s="7"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="28"/>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
@@ -21188,8 +21217,8 @@
       <c r="AA40" s="7"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A41" s="97"/>
-      <c r="B41" s="98"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -21217,8 +21246,8 @@
       <c r="AA41" s="7"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A42" s="97"/>
-      <c r="B42" s="98"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="28"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -21246,8 +21275,8 @@
       <c r="AA42" s="7"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A43" s="99"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="117"/>
+      <c r="B43" s="118"/>
       <c r="C43" s="32"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
@@ -21305,7 +21334,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A45" s="38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -21335,182 +21364,182 @@
       <c r="AA45" s="7"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="113" t="s">
+      <c r="B46" s="100"/>
+      <c r="C46" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="116" t="s">
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="112"/>
+      <c r="L46" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="M46" s="114"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114"/>
-      <c r="Q46" s="114"/>
-      <c r="R46" s="114"/>
-      <c r="S46" s="114"/>
-      <c r="T46" s="117"/>
+      <c r="M46" s="106"/>
+      <c r="N46" s="106"/>
+      <c r="O46" s="106"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="106"/>
+      <c r="S46" s="106"/>
+      <c r="T46" s="107"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A47" s="95" t="s">
+      <c r="A47" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="96"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="105"/>
-      <c r="F47" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" s="101"/>
+      <c r="D47" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="104"/>
+      <c r="F47" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="119"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="112" t="s">
+      <c r="I47" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="112"/>
+      <c r="J47" s="98"/>
       <c r="K47" s="10"/>
       <c r="L47" s="68"/>
-      <c r="M47" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="P47" s="112"/>
+      <c r="M47" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="N47" s="98"/>
+      <c r="O47" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="P47" s="98"/>
       <c r="Q47" s="12"/>
-      <c r="R47" s="112"/>
-      <c r="S47" s="112"/>
+      <c r="R47" s="98"/>
+      <c r="S47" s="98"/>
       <c r="T47" s="69"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="109"/>
+      <c r="B48" s="95"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="107" t="s">
+      <c r="D48" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="107"/>
-      <c r="F48" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="102"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="120"/>
       <c r="H48" s="15"/>
-      <c r="I48" s="111" t="s">
+      <c r="I48" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="111"/>
+      <c r="J48" s="113"/>
       <c r="K48" s="16"/>
       <c r="L48" s="70"/>
-      <c r="M48" s="107" t="s">
+      <c r="M48" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="107"/>
-      <c r="O48" s="107" t="s">
+      <c r="N48" s="96"/>
+      <c r="O48" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="P48" s="107"/>
+      <c r="P48" s="96"/>
       <c r="Q48" s="15"/>
-      <c r="R48" s="107"/>
-      <c r="S48" s="107"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="96"/>
       <c r="T48" s="13"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="109"/>
+      <c r="B49" s="95"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="110"/>
-      <c r="F49" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="103"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="121"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="107" t="s">
+      <c r="I49" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="107"/>
+      <c r="J49" s="96"/>
       <c r="K49" s="18"/>
       <c r="L49" s="71"/>
-      <c r="M49" s="107" t="s">
+      <c r="M49" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="N49" s="107"/>
-      <c r="O49" s="107" t="s">
+      <c r="N49" s="96"/>
+      <c r="O49" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="P49" s="107"/>
+      <c r="P49" s="96"/>
       <c r="Q49" s="15"/>
-      <c r="R49" s="107"/>
-      <c r="S49" s="107"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="96"/>
       <c r="T49" s="13"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A50" s="108" t="s">
+      <c r="A50" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="109"/>
+      <c r="B50" s="95"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="107" t="s">
+      <c r="D50" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="107"/>
-      <c r="F50" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50" s="104"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="122"/>
       <c r="H50" s="15"/>
-      <c r="I50" s="107" t="s">
+      <c r="I50" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="107"/>
+      <c r="J50" s="96"/>
       <c r="K50" s="18"/>
       <c r="L50" s="71"/>
-      <c r="M50" s="107" t="s">
+      <c r="M50" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="N50" s="107"/>
-      <c r="O50" s="107" t="s">
+      <c r="N50" s="96"/>
+      <c r="O50" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="P50" s="107"/>
+      <c r="P50" s="96"/>
       <c r="Q50" s="15"/>
-      <c r="R50" s="107"/>
-      <c r="S50" s="107"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="96"/>
       <c r="T50" s="13"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A51" s="93" t="s">
+      <c r="A51" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="106"/>
+      <c r="B51" s="110"/>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -21533,10 +21562,10 @@
       <c r="V51" s="7"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A52" s="95" t="s">
+      <c r="A52" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="96"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="9"/>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -21559,8 +21588,8 @@
       <c r="V52" s="7"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A53" s="97"/>
-      <c r="B53" s="98"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -21583,8 +21612,8 @@
       <c r="V53" s="7"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A54" s="97"/>
-      <c r="B54" s="98"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
@@ -21607,8 +21636,8 @@
       <c r="V54" s="7"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A55" s="97"/>
-      <c r="B55" s="98"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -21631,8 +21660,8 @@
       <c r="V55" s="7"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A56" s="97"/>
-      <c r="B56" s="98"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="28"/>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
@@ -21655,8 +21684,8 @@
       <c r="V56" s="7"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A57" s="97"/>
-      <c r="B57" s="98"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="28"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -21679,8 +21708,8 @@
       <c r="V57" s="7"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A58" s="97"/>
-      <c r="B58" s="98"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="28"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
@@ -21703,8 +21732,8 @@
       <c r="V58" s="7"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A59" s="97"/>
-      <c r="B59" s="98"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
       <c r="C59" s="28"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -21727,8 +21756,8 @@
       <c r="V59" s="7"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A60" s="97"/>
-      <c r="B60" s="98"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="116"/>
       <c r="C60" s="28"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -21751,8 +21780,8 @@
       <c r="V60" s="7"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A61" s="97"/>
-      <c r="B61" s="98"/>
+      <c r="A61" s="115"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="28"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29"/>
@@ -21775,8 +21804,8 @@
       <c r="V61" s="7"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A62" s="97"/>
-      <c r="B62" s="98"/>
+      <c r="A62" s="115"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="28"/>
       <c r="D62" s="29"/>
       <c r="E62" s="29"/>
@@ -21799,8 +21828,8 @@
       <c r="V62" s="7"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A63" s="97"/>
-      <c r="B63" s="98"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="28"/>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -21823,8 +21852,8 @@
       <c r="V63" s="7"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A64" s="97"/>
-      <c r="B64" s="98"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="28"/>
       <c r="D64" s="29"/>
       <c r="E64" s="29"/>
@@ -21847,8 +21876,8 @@
       <c r="V64" s="7"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A65" s="97"/>
-      <c r="B65" s="98"/>
+      <c r="A65" s="115"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="28"/>
       <c r="D65" s="29"/>
       <c r="E65" s="29"/>
@@ -21871,8 +21900,8 @@
       <c r="V65" s="7"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A66" s="97"/>
-      <c r="B66" s="98"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="116"/>
       <c r="C66" s="28"/>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -21895,8 +21924,8 @@
       <c r="V66" s="7"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A67" s="97"/>
-      <c r="B67" s="98"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="116"/>
       <c r="C67" s="28"/>
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
@@ -21919,8 +21948,8 @@
       <c r="V67" s="7"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A68" s="99"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="117"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="32"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
@@ -21944,29 +21973,63 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="J21:R21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A52:B68"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B43"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:B16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:T46"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
     <mergeCell ref="S21:Y21"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="T25:U25"/>
@@ -21983,63 +22046,29 @@
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:T46"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A52:B68"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B43"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A11:B16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22279,51 +22308,51 @@
       <c r="AX4" s="7"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="93" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="118" t="s">
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="123" t="s">
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="105"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="96"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="100"/>
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
@@ -22339,69 +22368,69 @@
       <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="105"/>
+      <c r="I6" s="104"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="105"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="105" t="s">
+      <c r="N6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="105"/>
+      <c r="O6" s="104"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="105" t="s">
+      <c r="Q6" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="105"/>
+      <c r="R6" s="104"/>
       <c r="S6" s="10"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="112" t="s">
+      <c r="U6" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112" t="s">
+      <c r="V6" s="98"/>
+      <c r="W6" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="112"/>
+      <c r="X6" s="98"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="112" t="s">
+      <c r="AA6" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="112"/>
-      <c r="AC6" s="112" t="s">
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="AD6" s="112"/>
+      <c r="AD6" s="98"/>
       <c r="AE6" s="11"/>
-      <c r="AF6" s="105" t="s">
+      <c r="AF6" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105" t="s">
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105" t="s">
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="AK6" s="96"/>
+      <c r="AK6" s="100"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
@@ -22417,69 +22446,69 @@
       <c r="AX6" s="7"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="109"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="107"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="107" t="s">
+      <c r="H7" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="107"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="107" t="s">
+      <c r="K7" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="107"/>
+      <c r="L7" s="96"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="107" t="s">
+      <c r="N7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="107"/>
+      <c r="O7" s="96"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="107" t="s">
+      <c r="Q7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="107"/>
+      <c r="R7" s="96"/>
       <c r="S7" s="16"/>
       <c r="T7" s="17"/>
-      <c r="U7" s="107" t="s">
+      <c r="U7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107" t="s">
+      <c r="V7" s="96"/>
+      <c r="W7" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="107"/>
+      <c r="X7" s="96"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="107" t="s">
+      <c r="AA7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107" t="s">
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="107"/>
+      <c r="AD7" s="96"/>
       <c r="AE7" s="17"/>
-      <c r="AF7" s="107" t="s">
+      <c r="AF7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107" t="s">
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107" t="s">
+      <c r="AI7" s="96"/>
+      <c r="AJ7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="AK7" s="109"/>
+      <c r="AK7" s="95"/>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
@@ -22495,69 +22524,69 @@
       <c r="AX7" s="7"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="109"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="110"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="110" t="s">
+      <c r="K8" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="110"/>
+      <c r="L8" s="97"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="110" t="s">
+      <c r="N8" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="110"/>
+      <c r="O8" s="97"/>
       <c r="P8" s="19"/>
-      <c r="Q8" s="110" t="s">
+      <c r="Q8" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="110"/>
+      <c r="R8" s="97"/>
       <c r="S8" s="18"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="107" t="s">
+      <c r="U8" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107" t="s">
+      <c r="V8" s="96"/>
+      <c r="W8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="107"/>
+      <c r="X8" s="96"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="107" t="s">
+      <c r="AA8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107" t="s">
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AD8" s="107"/>
+      <c r="AD8" s="96"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="107" t="s">
+      <c r="AF8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="107" t="s">
+      <c r="AG8" s="96"/>
+      <c r="AH8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AI8" s="107"/>
-      <c r="AJ8" s="107" t="s">
+      <c r="AI8" s="96"/>
+      <c r="AJ8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AK8" s="109"/>
+      <c r="AK8" s="95"/>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
@@ -22573,69 +22602,69 @@
       <c r="AX8" s="7"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="109"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="107" t="s">
+      <c r="H9" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="107"/>
+      <c r="I9" s="96"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="107" t="s">
+      <c r="K9" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="107"/>
+      <c r="L9" s="96"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="107" t="s">
+      <c r="N9" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="107"/>
+      <c r="O9" s="96"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="107" t="s">
+      <c r="Q9" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="107"/>
+      <c r="R9" s="96"/>
       <c r="S9" s="18"/>
       <c r="T9" s="15"/>
-      <c r="U9" s="107" t="s">
+      <c r="U9" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107" t="s">
+      <c r="V9" s="96"/>
+      <c r="W9" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="107"/>
+      <c r="X9" s="96"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="107" t="s">
+      <c r="AA9" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107" t="s">
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="AD9" s="107"/>
+      <c r="AD9" s="96"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="107" t="s">
+      <c r="AF9" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="107" t="s">
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107" t="s">
+      <c r="AI9" s="96"/>
+      <c r="AJ9" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AK9" s="109"/>
+      <c r="AK9" s="95"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
@@ -22651,10 +22680,10 @@
       <c r="AX9" s="7"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="106"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -22705,10 +22734,10 @@
       <c r="AX10" s="7"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -22759,8 +22788,8 @@
       <c r="AX11" s="7"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -22813,8 +22842,8 @@
       <c r="AX12" s="7"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -22865,8 +22894,8 @@
       <c r="AX13" s="7"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -22919,8 +22948,8 @@
       <c r="AX14" s="7"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -22971,8 +23000,8 @@
       <c r="AX15" s="7"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A16" s="97"/>
-      <c r="B16" s="98"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -23023,8 +23052,8 @@
       <c r="AX16" s="7"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -23075,8 +23104,8 @@
       <c r="AX17" s="7"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -23127,8 +23156,8 @@
       <c r="AX18" s="7"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -23179,8 +23208,8 @@
       <c r="AX19" s="7"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A20" s="97"/>
-      <c r="B20" s="98"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -23231,8 +23260,8 @@
       <c r="AX20" s="7"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A21" s="99"/>
-      <c r="B21" s="100"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -23283,10 +23312,10 @@
       <c r="AX21" s="7"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="96"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -23337,8 +23366,8 @@
       <c r="AX22" s="7"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A23" s="97"/>
-      <c r="B23" s="98"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -23393,8 +23422,8 @@
       <c r="AX23" s="7"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A24" s="97"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -23445,8 +23474,8 @@
       <c r="AX24" s="7"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A25" s="97"/>
-      <c r="B25" s="98"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -23501,8 +23530,8 @@
       <c r="AX25" s="7"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A26" s="97"/>
-      <c r="B26" s="98"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -23553,8 +23582,8 @@
       <c r="AX26" s="7"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A27" s="97"/>
-      <c r="B27" s="98"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -23605,8 +23634,8 @@
       <c r="AX27" s="7"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A28" s="97"/>
-      <c r="B28" s="98"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -23657,8 +23686,8 @@
       <c r="AX28" s="7"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
@@ -23709,8 +23738,8 @@
       <c r="AX29" s="7"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -23761,8 +23790,8 @@
       <c r="AX30" s="7"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A31" s="97"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
@@ -23813,8 +23842,8 @@
       <c r="AX31" s="7"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A32" s="99"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
@@ -24075,39 +24104,39 @@
       <c r="AX36" s="7"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="113" t="s">
+      <c r="B37" s="100"/>
+      <c r="C37" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="119" t="s">
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="120"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="116" t="s">
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="T37" s="114"/>
-      <c r="U37" s="114"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="114"/>
-      <c r="X37" s="114"/>
-      <c r="Y37" s="117"/>
+      <c r="T37" s="106"/>
+      <c r="U37" s="106"/>
+      <c r="V37" s="106"/>
+      <c r="W37" s="106"/>
+      <c r="X37" s="106"/>
+      <c r="Y37" s="107"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
@@ -24135,49 +24164,49 @@
       <c r="AX37" s="7"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="96"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="105" t="s">
+      <c r="D38" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="105"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="112" t="s">
+      <c r="G38" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="112"/>
+      <c r="H38" s="98"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="112" t="s">
+      <c r="K38" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112" t="s">
+      <c r="L38" s="98"/>
+      <c r="M38" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="112"/>
+      <c r="N38" s="98"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="112" t="s">
+      <c r="P38" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="112"/>
+      <c r="Q38" s="98"/>
       <c r="R38" s="10"/>
       <c r="S38" s="11"/>
-      <c r="T38" s="105" t="s">
+      <c r="T38" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="U38" s="105"/>
-      <c r="V38" s="105" t="s">
+      <c r="U38" s="104"/>
+      <c r="V38" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="W38" s="105"/>
-      <c r="X38" s="105" t="s">
+      <c r="W38" s="104"/>
+      <c r="X38" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="Y38" s="96"/>
+      <c r="Y38" s="100"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
@@ -24205,49 +24234,49 @@
       <c r="AX38" s="7"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="109"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="107" t="s">
+      <c r="D39" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="107"/>
+      <c r="E39" s="96"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="111" t="s">
+      <c r="G39" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="111"/>
+      <c r="H39" s="113"/>
       <c r="I39" s="16"/>
       <c r="J39" s="17"/>
-      <c r="K39" s="107" t="s">
+      <c r="K39" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107" t="s">
+      <c r="L39" s="96"/>
+      <c r="M39" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="N39" s="107"/>
+      <c r="N39" s="96"/>
       <c r="O39" s="15"/>
-      <c r="P39" s="107" t="s">
+      <c r="P39" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q39" s="107"/>
+      <c r="Q39" s="96"/>
       <c r="R39" s="18"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="107" t="s">
+      <c r="T39" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="U39" s="107"/>
-      <c r="V39" s="107" t="s">
+      <c r="U39" s="96"/>
+      <c r="V39" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="W39" s="107"/>
-      <c r="X39" s="107" t="s">
+      <c r="W39" s="96"/>
+      <c r="X39" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="Y39" s="109"/>
+      <c r="Y39" s="95"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
@@ -24275,49 +24304,49 @@
       <c r="AX39" s="7"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="109"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="110"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="107" t="s">
+      <c r="G40" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="107"/>
+      <c r="H40" s="96"/>
       <c r="I40" s="18"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="107" t="s">
+      <c r="K40" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107" t="s">
+      <c r="L40" s="96"/>
+      <c r="M40" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="107"/>
+      <c r="N40" s="96"/>
       <c r="O40" s="15"/>
-      <c r="P40" s="107" t="s">
+      <c r="P40" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="Q40" s="107"/>
+      <c r="Q40" s="96"/>
       <c r="R40" s="18"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="107" t="s">
+      <c r="T40" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="U40" s="107"/>
-      <c r="V40" s="107" t="s">
+      <c r="U40" s="96"/>
+      <c r="V40" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="W40" s="107"/>
-      <c r="X40" s="107" t="s">
+      <c r="W40" s="96"/>
+      <c r="X40" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Y40" s="109"/>
+      <c r="Y40" s="95"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
@@ -24345,49 +24374,49 @@
       <c r="AX40" s="7"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="109"/>
+      <c r="B41" s="95"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="107" t="s">
+      <c r="D41" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="107"/>
+      <c r="E41" s="96"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="107" t="s">
+      <c r="G41" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="107"/>
+      <c r="H41" s="96"/>
       <c r="I41" s="18"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="107" t="s">
+      <c r="K41" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="107"/>
-      <c r="M41" s="107" t="s">
+      <c r="L41" s="96"/>
+      <c r="M41" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="107"/>
+      <c r="N41" s="96"/>
       <c r="O41" s="15"/>
-      <c r="P41" s="107" t="s">
+      <c r="P41" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q41" s="107"/>
+      <c r="Q41" s="96"/>
       <c r="R41" s="18"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="107" t="s">
+      <c r="T41" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="U41" s="107"/>
-      <c r="V41" s="107" t="s">
+      <c r="U41" s="96"/>
+      <c r="V41" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="W41" s="107"/>
-      <c r="X41" s="107" t="s">
+      <c r="W41" s="96"/>
+      <c r="X41" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Y41" s="109"/>
+      <c r="Y41" s="95"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -24415,10 +24444,10 @@
       <c r="AX41" s="7"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="106"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -24469,10 +24498,10 @@
       <c r="AX42" s="7"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="96"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="9"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -24523,8 +24552,8 @@
       <c r="AX43" s="7"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A44" s="97"/>
-      <c r="B44" s="98"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -24575,8 +24604,8 @@
       <c r="AX44" s="7"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A45" s="97"/>
-      <c r="B45" s="98"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
@@ -24627,8 +24656,8 @@
       <c r="AX45" s="7"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A46" s="97"/>
-      <c r="B46" s="98"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="116"/>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
@@ -24679,8 +24708,8 @@
       <c r="AX46" s="7"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A47" s="97"/>
-      <c r="B47" s="98"/>
+      <c r="A47" s="115"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -24731,8 +24760,8 @@
       <c r="AX47" s="7"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A48" s="97"/>
-      <c r="B48" s="98"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -24783,8 +24812,8 @@
       <c r="AX48" s="7"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A49" s="97"/>
-      <c r="B49" s="98"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
@@ -24835,8 +24864,8 @@
       <c r="AX49" s="7"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A50" s="97"/>
-      <c r="B50" s="98"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="28"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -24887,8 +24916,8 @@
       <c r="AX50" s="7"/>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A51" s="97"/>
-      <c r="B51" s="98"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
@@ -24939,8 +24968,8 @@
       <c r="AX51" s="7"/>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A52" s="97"/>
-      <c r="B52" s="98"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="116"/>
       <c r="C52" s="28"/>
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
@@ -24991,8 +25020,8 @@
       <c r="AX52" s="7"/>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A53" s="97"/>
-      <c r="B53" s="98"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -25043,8 +25072,8 @@
       <c r="AX53" s="7"/>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A54" s="97"/>
-      <c r="B54" s="98"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
@@ -25095,8 +25124,8 @@
       <c r="AX54" s="7"/>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A55" s="97"/>
-      <c r="B55" s="98"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -25147,8 +25176,8 @@
       <c r="AX55" s="7"/>
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A56" s="97"/>
-      <c r="B56" s="98"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="28"/>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
@@ -25199,8 +25228,8 @@
       <c r="AX56" s="7"/>
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A57" s="97"/>
-      <c r="B57" s="98"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="28"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -25251,8 +25280,8 @@
       <c r="AX57" s="7"/>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A58" s="97"/>
-      <c r="B58" s="98"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="28"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
@@ -25303,8 +25332,8 @@
       <c r="AX58" s="7"/>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="A59" s="99"/>
-      <c r="B59" s="100"/>
+      <c r="A59" s="117"/>
+      <c r="B59" s="118"/>
       <c r="C59" s="32"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
@@ -26656,22 +26685,67 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AK5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="A43:B59"/>
+    <mergeCell ref="A22:B32"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B21"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="S37:Y37"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="N8:O8"/>
@@ -26696,67 +26770,22 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B21"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="S37:Y37"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="A43:B59"/>
-    <mergeCell ref="A22:B32"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AK5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26824,16 +26853,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -26841,14 +26870,14 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -27059,7 +27088,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -27192,10 +27221,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27236,7 +27265,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>77</v>
@@ -27249,56 +27278,56 @@
         <v>59</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="125" t="s">
-        <v>129</v>
+      <c r="A6" s="126" t="s">
+        <v>126</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="43"/>
+        <v>113</v>
+      </c>
+      <c r="E6" s="92"/>
       <c r="F6" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="126"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="86" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="126"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="60" t="s">
         <v>64</v>
       </c>
@@ -27306,14 +27335,14 @@
         <v>63</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="126"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="60" t="s">
         <v>66</v>
       </c>
@@ -27321,14 +27350,14 @@
         <v>65</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="126"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="60" t="s">
         <v>69</v>
       </c>
@@ -27336,14 +27365,14 @@
         <v>67</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="126"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="60" t="s">
         <v>71</v>
       </c>
@@ -27351,14 +27380,14 @@
         <v>70</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="126"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="60" t="s">
         <v>74</v>
       </c>
@@ -27366,90 +27395,92 @@
         <v>72</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="126"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="86" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" s="79"/>
       <c r="F13" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="126"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E14" s="79"/>
       <c r="F14" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="126"/>
-      <c r="B15" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="79"/>
+    <row r="15" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="128"/>
+      <c r="B15" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="130"/>
       <c r="F15" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="126"/>
-      <c r="B16" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="44" t="s">
+      <c r="A16" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="44" t="s">
+      <c r="D16" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="126"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="60" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>78</v>
@@ -27458,15 +27489,15 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="126"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="60" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>78</v>
@@ -27475,15 +27506,15 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="126"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="60" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>78</v>
@@ -27492,75 +27523,71 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="126"/>
-      <c r="B20" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="44" t="s">
+      <c r="A20" s="127"/>
+      <c r="B20" s="132" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="133" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="126"/>
-      <c r="B21" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="44" t="s">
+    <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="128"/>
+      <c r="B21" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="45" t="s">
         <v>78</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="127"/>
-      <c r="B22" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>78</v>
-      </c>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="65" t="s">
+      <c r="A23" s="127"/>
+      <c r="B23" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="126"/>
+      <c r="A24" s="127"/>
       <c r="B24" s="60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>75</v>
@@ -27570,29 +27597,25 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="126"/>
-      <c r="B25" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="64" t="s">
+    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="128"/>
+      <c r="B25" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="44"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="127"/>
-      <c r="B26" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="45"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
@@ -27614,19 +27637,11 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A6:A22"/>
+  <mergeCells count="3">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27715,7 +27730,7 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -28113,7 +28128,7 @@
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -28533,7 +28548,7 @@
     <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -28931,7 +28946,7 @@
     <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -29285,7 +29300,7 @@
     <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -29683,7 +29698,7 @@
     <row r="93" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -30015,7 +30030,7 @@
     <row r="108" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -30325,7 +30340,7 @@
     <row r="122" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -30723,7 +30738,7 @@
     <row r="140" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -31055,7 +31070,7 @@
     <row r="155" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A155" s="7"/>
       <c r="B155" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -31359,7 +31374,7 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -31437,7 +31452,7 @@
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -31463,16 +31478,16 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -31480,7 +31495,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -31488,7 +31503,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -31496,7 +31511,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -31504,7 +31519,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -31512,7 +31527,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -31520,7 +31535,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -31528,7 +31543,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -31536,7 +31551,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
